--- a/Backpropagation.xlsx
+++ b/Backpropagation.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Learning path\python\Deep Learning\Tensorflow_2_and_keras\TF_2_Notebooks_and_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Learning path\python\Deep Learning\Tensorflow_2_and_keras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A19E0E-7F37-44C2-B8AD-0CCDF7DB4D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06920A12-9BEC-4E3F-B99F-6C3D04C4682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{EBBA14C9-A5BD-40D2-AD20-3EFD70644004}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{EBBA14C9-A5BD-40D2-AD20-3EFD70644004}"/>
   </bookViews>
   <sheets>
-    <sheet name="pass 1" sheetId="1" r:id="rId1"/>
-    <sheet name="pass 2" sheetId="2" r:id="rId2"/>
-    <sheet name="pass 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Pseudo code" sheetId="4" r:id="rId1"/>
+    <sheet name="iter 1" sheetId="1" r:id="rId2"/>
+    <sheet name="iter 2" sheetId="2" r:id="rId3"/>
+    <sheet name="iter 3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,12 +117,6 @@
     <t>E(o2)</t>
   </si>
   <si>
-    <t>Iter 1</t>
-  </si>
-  <si>
-    <t>iter 0</t>
-  </si>
-  <si>
     <t>dEtotal/dw5</t>
   </si>
   <si>
@@ -137,9 +132,6 @@
     <t>learning rate</t>
   </si>
   <si>
-    <t>iter 2</t>
-  </si>
-  <si>
     <t>dEtotal/dw1</t>
   </si>
   <si>
@@ -150,6 +142,15 @@
   </si>
   <si>
     <t>dEtotal/dw4</t>
+  </si>
+  <si>
+    <t>output layer</t>
+  </si>
+  <si>
+    <t>hidden layer</t>
+  </si>
+  <si>
+    <t>initialization</t>
   </si>
 </sst>
 </file>
@@ -227,6 +228,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>439215</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC091700-1A6B-4BC2-A846-9BD562296797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="5773215" cy="3746499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -451,7 +501,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -676,7 +726,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -813,15 +863,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>450516</xdr:colOff>
+      <xdr:colOff>374316</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>481457</xdr:colOff>
+      <xdr:colOff>405257</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>30845</xdr:rowOff>
+      <xdr:rowOff>81645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -844,7 +894,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4260516" y="6750050"/>
+          <a:off x="4184316" y="6800850"/>
           <a:ext cx="3840941" cy="3040745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1197,18 +1247,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CA3B68-7D86-4481-BAB8-7F9A4E721B6B}">
+  <dimension ref="K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="15" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11970135-6206-4C97-903E-51579465FD8C}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1226,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1303,6 +1372,7 @@
       <c r="C11">
         <v>0.5</v>
       </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -1438,7 +1508,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1452,7 +1522,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <f>-1*(I19-F19)*F19*(1-F19)*C19</f>
@@ -1468,7 +1538,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <f>-1*(I19-F19)*F19*(1-F19)*C20</f>
@@ -1484,7 +1554,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <f>-1*(I20-F20)*F20*(1-F20)*C19</f>
@@ -1500,7 +1570,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <f>-1*(I20-F20)*F20*(1-F20)*C20</f>
@@ -1516,7 +1586,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1530,7 +1600,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <f>((-(I19-F19)*F19*(1-F19))*C9+ (-(I20-F20)*F20*(1-F20))*C11)*(C19*(1-C19))*(C3)</f>
@@ -1546,7 +1616,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <f>((-(I19-F19)*F19*(1-F19))*C9+ (-(I20-F20)*F20*(1-F20))*C11)*(C19*(1-C19))*(C4)</f>
@@ -1562,7 +1632,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40">
         <f>((-(I19-F19)*F19*(1-F19))*C10+ (-(I20-F20)*F20*(1-F20))*C12)*(C20*(1-C20))*C3</f>
@@ -1578,7 +1648,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <f>((-(I19-F19)*F19*(1-F19))*C10+ (-(I20-F20)*F20*(1-F20))*C12)*(C20*(1-C20))*C4</f>
@@ -1600,19 +1670,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87C41DD-CC67-43EC-8C3F-E98526320A9D}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1630,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1657,7 +1725,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>+'pass 1'!E38</f>
+        <f>+'iter 1'!E38</f>
         <v>0.14978071613276281</v>
       </c>
     </row>
@@ -1666,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f>+'pass 1'!E39</f>
+        <f>+'iter 1'!E39</f>
         <v>0.19956143226552567</v>
       </c>
     </row>
@@ -1675,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f>+'pass 1'!E40</f>
+        <f>+'iter 1'!E40</f>
         <v>0.24975114363236958</v>
       </c>
     </row>
@@ -1684,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <f>+'pass 1'!E41</f>
+        <f>+'iter 1'!E41</f>
         <v>0.29950228726473915</v>
       </c>
     </row>
@@ -1693,7 +1761,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <f>+'pass 1'!E29</f>
+        <f>+'iter 1'!E29</f>
         <v>0.35891647971788465</v>
       </c>
     </row>
@@ -1702,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <f>+'pass 1'!E30</f>
+        <f>+'iter 1'!E30</f>
         <v>0.4086661860762334</v>
       </c>
     </row>
@@ -1711,7 +1779,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f>+'pass 1'!E31</f>
+        <f>+'iter 1'!E31</f>
         <v>0.5113012702387375</v>
       </c>
     </row>
@@ -1720,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <f>+'pass 1'!E32</f>
+        <f>+'iter 1'!E32</f>
         <v>0.56137012110798912</v>
       </c>
     </row>
@@ -1850,7 +1918,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1864,7 +1932,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <f>-1*(I19-F19)*F19*(1-F19)*C19</f>
@@ -1880,7 +1948,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <f>-1*(I19-F19)*F19*(1-F19)*C20</f>
@@ -1896,7 +1964,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <f>-1*(I20-F20)*F20*(1-F20)*C19</f>
@@ -1912,7 +1980,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <f>-1*(I20-F20)*F20*(1-F20)*C20</f>
@@ -1928,7 +1996,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1942,7 +2010,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <f>((-(I19-F19)*F19*(1-F19))*C9+ (-(I20-F20)*F20*(1-F20))*C11)*(C19*(1-C19))*(C3)</f>
@@ -1958,7 +2026,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <f>((-(I19-F19)*F19*(1-F19))*C9+ (-(I20-F20)*F20*(1-F20))*C11)*(C19*(1-C19))*(C4)</f>
@@ -1974,7 +2042,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40">
         <f>((-(I19-F19)*F19*(1-F19))*C10+ (-(I20-F20)*F20*(1-F20))*C12)*(C20*(1-C20))*C3</f>
@@ -1990,7 +2058,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <f>((-(I19-F19)*F19*(1-F19))*C10+ (-(I20-F20)*F20*(1-F20))*C12)*(C20*(1-C20))*C4</f>
@@ -2010,19 +2078,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EB678E-F732-4E6D-83E9-A5EA93F22758}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2035,15 +2103,15 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2054,7 +2122,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -2062,79 +2130,80 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <f>+'pass 2'!E38</f>
+        <f>+'iter 2'!E38</f>
         <v>0.1495927177634872</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <f>+'pass 2'!E39</f>
+        <f>+'iter 2'!E39</f>
         <v>0.19918543552697449</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <f>+'pass 2'!E40</f>
+        <f>+'iter 2'!E40</f>
         <v>0.24953301486085769</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <f>+'pass 2'!E41</f>
+        <f>+'iter 2'!E41</f>
         <v>0.29906602972171537</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <f>+'pass 2'!E29</f>
+        <f>+'iter 2'!E29</f>
         <v>0.31735386199923843</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <f>+'pass 2'!E30</f>
+        <f>+'iter 2'!E30</f>
         <v>0.36685047224630868</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <f>+'pass 2'!E31</f>
+        <f>+'iter 2'!E31</f>
         <v>0.52239732624469803</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <f>+'pass 2'!E32</f>
+        <f>+'iter 2'!E32</f>
         <v>0.57253374669401436</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -2143,7 +2212,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -2260,7 +2329,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2274,7 +2343,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <f>-1*(I19-F19)*F19*(1-F19)*C19</f>
@@ -2290,7 +2359,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <f>-1*(I19-F19)*F19*(1-F19)*C20</f>
@@ -2307,7 +2376,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <f>-1*(I20-F20)*F20*(1-F20)*C19</f>
@@ -2323,7 +2392,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <f>-1*(I20-F20)*F20*(1-F20)*C20</f>
@@ -2342,7 +2411,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2356,7 +2425,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <f>((-(I19-F19)*F19*(1-F19))*C9+ (-(I20-F20)*F20*(1-F20))*C11)*(C19*(1-C19))*(C3)</f>
@@ -2372,7 +2441,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <f>((-(I19-F19)*F19*(1-F19))*C9+ (-(I20-F20)*F20*(1-F20))*C11)*(C19*(1-C19))*(C4)</f>
@@ -2388,7 +2457,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40">
         <f>((-(I19-F19)*F19*(1-F19))*C10+ (-(I20-F20)*F20*(1-F20))*C12)*(C20*(1-C20))*C3</f>
@@ -2404,7 +2473,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <f>((-(I19-F19)*F19*(1-F19))*C10+ (-(I20-F20)*F20*(1-F20))*C12)*(C20*(1-C20))*C4</f>
